--- a/ТПР. CW2.xlsx
+++ b/ТПР. CW2.xlsx
@@ -8,53 +8,56 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858478BF-B089-4F51-8A26-C40EF11B3B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1624F-A4A3-4ACC-A42B-A7D8105D2572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="585" windowWidth="21600" windowHeight="11385" xr2:uid="{D4A1ABA8-EC4B-411D-AEA4-F568E9C2EAFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4A1ABA8-EC4B-411D-AEA4-F568E9C2EAFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="true">'Лист1'!$A$4:$B$4</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="true">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="true">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="true">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="true">'Лист1'!$A$4:$B$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="true">'Лист1'!$C$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="true">'Лист1'!$C$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="true">'Лист1'!$C$9</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="true">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="true">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="true">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="true">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="true">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="true">4</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="true">'Лист1'!$C$4</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="true">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="true">4</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="true">целое</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="true">'Лист1'!$E$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="true">'Лист1'!$E$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="true">'Лист1'!$E$9</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="true">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="true">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="true">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="true">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="true">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="true">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="true">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="true">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="true">3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$O$4:$P$4</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$O$4:$P$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$Q$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$Q$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$Q$8</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$Q$9</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$Q$4</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">целое</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$S$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$S$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$S$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$S$9</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
   <si>
     <t>x1</t>
   </si>
@@ -102,8 +105,8 @@
     <font>
       <sz val="10"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,15 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,18 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB8D65E-EAA1-4959-91B9-2CF6EAFA55C4}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8" activeCellId="0"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" defaultColWidth="9.14062" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +481,6 @@
       <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
       <c r="O3" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,10 +490,8 @@
       <c r="Q3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -510,28 +506,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
         <f>H4*H5+I4*I5</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>195</v>
+      </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="1">
         <f>O4*O5+P4*P5</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+        <v>480</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -544,32 +536,14 @@
       <c r="I5" s="1">
         <v>15</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
       <c r="O5" s="1">
         <v>30</v>
       </c>
       <c r="P5" s="1">
         <v>60</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
     </row>
-    <row r="6">
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -594,7 +568,7 @@
       </c>
       <c r="J7" s="1">
         <f>$H$4*H7+$I$4*I7</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>3</v>
@@ -610,7 +584,7 @@
       </c>
       <c r="Q7" s="1">
         <f>$O$4*O7+$P$4*P7</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>3</v>
@@ -619,7 +593,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -644,7 +618,7 @@
       </c>
       <c r="J8" s="1">
         <f>$H$4*H8+$I$4*I8</f>
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>3</v>
@@ -660,7 +634,7 @@
       </c>
       <c r="Q8" s="1">
         <f>$O$4*O8+$P$4*P8</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>3</v>
@@ -669,7 +643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -694,7 +668,7 @@
       </c>
       <c r="J9" s="1">
         <f>$H$4*H9+$I$4*I9</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>3</v>
@@ -710,7 +684,7 @@
       </c>
       <c r="Q9" s="1">
         <f>$O$4*O9+$P$4*P9</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>3</v>
@@ -719,8 +693,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O10" s="1">
         <v>10</v>
       </c>
@@ -729,7 +702,7 @@
       </c>
       <c r="Q10" s="1">
         <f>$O$4*O10+$P$4*P10</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>3</v>
@@ -737,26 +710,6 @@
       <c r="S10" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="15">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="17">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="21">
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
     </row>
   </sheetData>
   <scenarios current="0">
@@ -768,6 +721,14 @@
       <inputCells r="A4" val="5"/>
       <inputCells r="B4" val="0"/>
     </scenario>
+    <scenario name="3" count="2" user="user" comment="Автор: user , 9/28/2023">
+      <inputCells r="H4" val="0"/>
+      <inputCells r="I4" val="13"/>
+    </scenario>
+    <scenario name="5" count="2" user="user" comment="Автор: user , 9/28/2023">
+      <inputCells r="O4" val="0"/>
+      <inputCells r="P4" val="8"/>
+    </scenario>
   </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
